--- a/DATA/IsoData/UKFSIsoData.xlsx
+++ b/DATA/IsoData/UKFSIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">7b97337d-5c2b-40a9-9bd7-f54a0a305a04</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d292496-7d4b-49f3-9b36-c7388a59c761</t>
   </si>
   <si>
     <t xml:space="preserve">UKFS.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162637Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44cce097-6a81-4f12-918e-4ff36011d6d7</t>
+    <t xml:space="preserve">20210112T155544Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2b98268-b31c-437d-887a-5b4b39dc5487</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20181227.1200</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000041735</t>
   </si>
   <si>
-    <t xml:space="preserve">53845550-684e-4b75-b677-f57fd8703a46</t>
+    <t xml:space="preserve">53f23ad1-1a60-4649-8624-448ad451aff4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190108.1235</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000041752</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163355Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8462a619-6b00-42e6-be4f-ba1a845b92ca</t>
+    <t xml:space="preserve">20210112T160806Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c2253f5-eb2a-4a20-ac6d-b2e6b16988c7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190416.1240</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000041836</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163214Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3af41974-59dc-4d7a-aa9f-cbe085bcf4ac</t>
+    <t xml:space="preserve">20210112T164217Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def73e48-313f-4698-9f72-eb6681fc3b0f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190513.1300</t>
@@ -143,10 +149,10 @@
     <t xml:space="preserve">A00000041838</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162700Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">636b3c6f-acfa-4359-99cf-8342efcbf956</t>
+    <t xml:space="preserve">20210112T161650Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e9694331-e57b-45dc-ba25-5c56f0114f5d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190527.1257</t>
@@ -158,7 +164,7 @@
     <t xml:space="preserve">A00000041839</t>
   </si>
   <si>
-    <t xml:space="preserve">daf018ee-d566-4195-9781-460490e29c20</t>
+    <t xml:space="preserve">951a8d82-eec1-4926-8dd8-e80743d78448</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190610.1415</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">A00000041770</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162247Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb200bca-62a8-4460-9e95-3ce6df5612c6</t>
+    <t xml:space="preserve">20210112T161914Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8b6d8bda-9cc4-4cd3-8428-3a86a471f4f4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190624.1210</t>
@@ -185,7 +191,7 @@
     <t xml:space="preserve">A00000041788</t>
   </si>
   <si>
-    <t xml:space="preserve">433ce341-b968-467a-9f55-97642d445f15</t>
+    <t xml:space="preserve">0ec89dba-56c6-4f33-b422-a2c5a5838b4c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190724.1100</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000041843</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162538Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414d3dee-c9a5-485c-8dca-3319558a8808</t>
+    <t xml:space="preserve">20210112T163542Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3103e1d4-b5c4-40b2-9dd2-00050c416c04</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190807.1255</t>
@@ -212,10 +218,10 @@
     <t xml:space="preserve">A00000041845</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163020Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b3510d58-fea3-4f52-902a-841499497596</t>
+    <t xml:space="preserve">20210112T161638Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a721d8cd-374f-4717-b27c-e8331e89bfd4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190819.1155</t>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">A00000041789</t>
   </si>
   <si>
-    <t xml:space="preserve">7bda6b56-9c69-4591-b1b3-13d02e009d26</t>
+    <t xml:space="preserve">73c2efcc-5bbb-4f2e-961b-ace1f3cfa944</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190905.1230</t>
@@ -239,10 +245,10 @@
     <t xml:space="preserve">A00000041739</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163259Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13077e38-423a-4252-b0db-252f765db11d</t>
+    <t xml:space="preserve">20210112T162003Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d86c447f-651f-49b0-a4c4-b1843671f9a7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20190917.1200</t>
@@ -254,19 +260,22 @@
     <t xml:space="preserve">A00000041773</t>
   </si>
   <si>
-    <t xml:space="preserve">d4c0a0a4-1f57-4859-b87f-c763e9191a92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.UKFS.20190919.1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.UKFS.20190919.1200.ISO.TEST</t>
+    <t xml:space="preserve">c160ff62-6488-4659-86c9-40b7b6568ea5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UKFS.20191001.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UKFS.20191001.1200.ISO.TEST</t>
   </si>
   <si>
     <t xml:space="preserve">A00000041777</t>
   </si>
   <si>
-    <t xml:space="preserve">de4d548b-0f94-4ecc-b2c3-bba565ed2861</t>
+    <t xml:space="preserve">20210112T160414Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a192555f-ff58-4e58-9535-e3841f95b302</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20191016.1202</t>
@@ -278,10 +287,7 @@
     <t xml:space="preserve">A00000041848</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162244Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32527db4-fdd6-449a-9c1b-3ad0d97c9425</t>
+    <t xml:space="preserve">396ddb0d-3902-4565-83cb-defc5c8270a4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20191031.1202</t>
@@ -293,7 +299,7 @@
     <t xml:space="preserve">A00000041849</t>
   </si>
   <si>
-    <t xml:space="preserve">448cfa24-7ce1-4d2a-9a2e-71e21cd3e961</t>
+    <t xml:space="preserve">ae6014ef-45b1-4f3c-b394-38c5ec9d41dd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20191114.1246</t>
@@ -305,10 +311,10 @@
     <t xml:space="preserve">A00000041783</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161958Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2f2a4bab-c7d6-422d-bc80-60d121680ce8</t>
+    <t xml:space="preserve">20210112T155705Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4bb40f12-4c33-4b9e-ba0a-119a9cf1d17e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20191126.1145</t>
@@ -320,7 +326,7 @@
     <t xml:space="preserve">A00000041808</t>
   </si>
   <si>
-    <t xml:space="preserve">710145d5-7b85-4dad-ad88-ff66eb6817a8</t>
+    <t xml:space="preserve">e86fac4c-6bdc-4f4b-a322-d323cea3b4ef</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UKFS.20191211.1205</t>
@@ -332,7 +338,55 @@
     <t xml:space="preserve">A00000041809</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162126Z</t>
+    <t xml:space="preserve">20210112T160237Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50a91346-2ca1-49ca-a780-55e1feebc281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UKFS.20200122.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UKFS.20200122.1200.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000041725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T162442Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38fb433f-84a9-4333-a361-e5599edfdc2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UKFS.20200218.1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UKFS.20200218.1500.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000041762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163927Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5e40f175-807d-400d-b998-a71b4c09f0e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UKFS.20200304.1230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UKFS.20200304.1230.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000041728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T162136Z</t>
   </si>
 </sst>
 </file>
@@ -670,7 +724,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -724,23 +778,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43432.6979166667</v>
@@ -761,35 +818,38 @@
         <v>0.19</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43535.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43446.7965277778</v>
@@ -810,35 +870,38 @@
         <v>0.494</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43535.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43461.7534722222</v>
@@ -859,35 +922,38 @@
         <v>0.226</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43535.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43550.875</v>
@@ -908,35 +974,38 @@
         <v>0.271</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43636.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43571.7361111111</v>
@@ -957,35 +1026,38 @@
         <v>0.096</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43636.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43598.8333333333</v>
@@ -1006,35 +1078,38 @@
         <v>0.183</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43620.75</v>
@@ -1055,35 +1130,38 @@
         <v>0.156</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43626.8020833333</v>
@@ -1104,35 +1182,38 @@
         <v>0.171</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43640.71875</v>
@@ -1153,35 +1234,38 @@
         <v>0.226</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43670.6875</v>
@@ -1202,35 +1286,38 @@
         <v>0.185</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43684.7152777778</v>
@@ -1251,35 +1338,38 @@
         <v>0.155</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43696.7083333333</v>
@@ -1300,35 +1390,38 @@
         <v>0.215</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43713.75</v>
@@ -1349,41 +1442,44 @@
         <v>0.301</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>43713.75</v>
+        <v>43725.7291666667</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>43727.7083333333</v>
+        <v>43739.7083333333</v>
       </c>
       <c r="I15" t="n">
         <v>-4.29</v>
@@ -1398,38 +1494,41 @@
         <v>0.224</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>43727.7291666667</v>
+        <v>43739.7083333333</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>43754.7097222222</v>
@@ -1447,35 +1546,38 @@
         <v>0.248</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43754.7291666667</v>
@@ -1496,35 +1598,38 @@
         <v>0.038</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43769.7291666667</v>
@@ -1545,35 +1650,38 @@
         <v>0.196</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43783.7826388889</v>
@@ -1594,35 +1702,38 @@
         <v>0.186</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43795.75</v>
@@ -1643,17 +1754,176 @@
         <v>0.153</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>43837.84375</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>43852.75</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-5.533</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-28.756</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>44001.75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>43860.75</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>43879.875</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-18.328</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-140.18</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>44001.75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>119</v>
+      </c>
+      <c r="R22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>43879.8958333333</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>43894.7708333333</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-14.756</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-108.294</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>44001.75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>124</v>
+      </c>
+      <c r="R23" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
